--- a/PSP_Sheets/PSP_Sheet_정석준.xlsx
+++ b/PSP_Sheets/PSP_Sheet_정석준.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DB405S2A\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seokjun JEONG\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E3883AA-D92B-4ACA-8C07-FEF806DBDBF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9633AFA-DC9C-4E9C-AF6F-5F04493282D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="2685" windowWidth="14865" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -291,6 +291,25 @@
     <t>정석준</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>아이디어 선정 및 프로젝트 계획서 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>아이디어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 정리 및 계획서 종합 수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -300,7 +319,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -365,6 +384,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -844,10 +869,10 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
@@ -856,7 +881,7 @@
     <col min="6" max="6" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="11.85" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -868,10 +893,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="11.85" customHeight="1">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="11.85" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
@@ -885,8 +910,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="25.5">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -906,23 +931,47 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="14">
+        <v>43714</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>100</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="14">
+        <v>43728</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>120</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -930,7 +979,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -938,7 +987,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -946,7 +995,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -954,7 +1003,7 @@
       <c r="E11" s="18"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -962,7 +1011,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -970,7 +1019,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -978,7 +1027,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -986,7 +1035,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -994,7 +1043,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1002,7 +1051,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1010,7 +1059,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1018,7 +1067,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1026,7 +1075,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1034,7 +1083,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1042,7 +1091,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1050,7 +1099,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1058,7 +1107,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1066,7 +1115,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1074,7 +1123,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1082,7 +1131,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1090,7 +1139,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1098,7 +1147,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1106,7 +1155,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1114,7 +1163,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1122,7 +1171,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1130,7 +1179,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1138,7 +1187,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1146,7 +1195,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1154,7 +1203,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1162,7 +1211,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1187,7 +1236,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1204,7 +1253,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1221,7 +1270,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1238,7 +1287,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1255,7 +1304,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1272,7 +1321,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1289,7 +1338,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1306,7 +1355,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1323,7 +1372,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1340,7 +1389,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1357,7 +1406,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1374,7 +1423,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1391,7 +1440,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1408,7 +1457,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1425,7 +1474,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/PSP_Sheets/PSP_Sheet_정석준.xlsx
+++ b/PSP_Sheets/PSP_Sheet_정석준.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seokjun JEONG\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeokJun\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7251E678-8C43-4A09-BDED-EDA60FA5D45C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6268440F-FAAC-4429-8518-03AA7EDAFE64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -337,6 +337,25 @@
         <charset val="129"/>
       </rPr>
       <t>리뷰</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 23일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SRS 최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수정</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -899,7 +918,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -1042,12 +1061,24 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>210</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="15"/>
@@ -1396,6 +1427,7 @@
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>Page &amp;P</oddFooter>

--- a/PSP_Sheets/PSP_Sheet_정석준.xlsx
+++ b/PSP_Sheets/PSP_Sheet_정석준.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeokJun\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6268440F-FAAC-4429-8518-03AA7EDAFE64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B324D0-BC9F-4277-812B-91BF351CDF35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -356,6 +356,36 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 30일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs 강의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수강</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -918,7 +948,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -1081,12 +1111,24 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>180</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="14"/>

--- a/PSP_Sheets/PSP_Sheet_정석준.xlsx
+++ b/PSP_Sheets/PSP_Sheet_정석준.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeokJun\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B324D0-BC9F-4277-812B-91BF351CDF35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2CBC586-80CC-4B98-882D-CE80BA3CFDF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -386,6 +386,66 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 수강</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 9일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SRS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 11일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SRS 최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수정</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -481,7 +541,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -504,6 +564,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -513,7 +584,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -561,6 +632,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -948,7 +1021,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -1131,28 +1204,64 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>60</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0.875</v>
+      </c>
+      <c r="D13" s="8">
+        <v>30</v>
+      </c>
+      <c r="E13" s="8">
+        <v>180</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="14"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>120</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="A15" s="14"/>

--- a/PSP_Sheets/PSP_Sheet_정석준.xlsx
+++ b/PSP_Sheets/PSP_Sheet_정석준.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeokJun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeokJun\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2CBC586-80CC-4B98-882D-CE80BA3CFDF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10981B46-3E63-4B11-878E-9BBCEA17349F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6075" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -446,6 +446,137 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 12일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 25일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nodejs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코딩</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 29일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 30일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 1일</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -458,7 +589,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -530,6 +661,12 @@
       <sz val="10"/>
       <name val="돋움"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1021,7 +1158,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -1264,52 +1401,124 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>180</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>180</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D17" s="9">
+        <v>30</v>
+      </c>
+      <c r="E17" s="17">
+        <v>90</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
+      <c r="A18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>120</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="14"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="9">
+        <v>120</v>
+      </c>
+      <c r="E19" s="17">
+        <v>360</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D20" s="9">
+        <v>120</v>
+      </c>
+      <c r="E20" s="17">
+        <v>360</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="14"/>

--- a/PSP_Sheets/PSP_Sheet_정석준.xlsx
+++ b/PSP_Sheets/PSP_Sheet_정석준.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeokJun\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10981B46-3E63-4B11-878E-9BBCEA17349F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE40BA5A-6947-4A34-A2EF-B68081BAC570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -577,6 +577,51 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 1일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 5일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 6일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 7일</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1157,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -1454,7 +1499,7 @@
         <v>30</v>
       </c>
       <c r="E17" s="17">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>27</v>
@@ -1494,7 +1539,7 @@
         <v>120</v>
       </c>
       <c r="E19" s="17">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>27</v>
@@ -1514,35 +1559,71 @@
         <v>120</v>
       </c>
       <c r="E20" s="17">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
+      <c r="A21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D21" s="9">
+        <v>60</v>
+      </c>
+      <c r="E21" s="17">
+        <v>240</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="4"/>
+      <c r="A22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>180</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="4"/>
+      <c r="A23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D23" s="9">
+        <v>60</v>
+      </c>
+      <c r="E23" s="17">
+        <v>480</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="14"/>

--- a/PSP_Sheets/PSP_Sheet_정석준.xlsx
+++ b/PSP_Sheets/PSP_Sheet_정석준.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeokJun\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE40BA5A-6947-4A34-A2EF-B68081BAC570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5776056-5DF6-4D4C-AC75-9891E79090CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -622,6 +622,36 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 7일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 8일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 9일</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1203,7 +1233,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -1619,27 +1649,51 @@
         <v>60</v>
       </c>
       <c r="E23" s="17">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D24" s="9">
+        <v>60</v>
+      </c>
+      <c r="E24" s="17">
+        <v>420</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="14"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D25" s="9">
+        <v>100</v>
+      </c>
+      <c r="E25" s="17">
+        <v>600</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="14"/>
